--- a/biology/Médecine/Léproserie_de_la_Madeleine_d'Angers/Léproserie_de_la_Madeleine_d'Angers.xlsx
+++ b/biology/Médecine/Léproserie_de_la_Madeleine_d'Angers/Léproserie_de_la_Madeleine_d'Angers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_de_la_Madeleine_d%27Angers</t>
+          <t>Léproserie_de_la_Madeleine_d'Angers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Léproserie de la Madeleine d'Angers est une léproserie du XIIe siècle situé dans la ville d'Angers en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_de_la_Madeleine_d%27Angers</t>
+          <t>Léproserie_de_la_Madeleine_d'Angers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation
-La léproserie a été fondée au début du XIIe siècle. Cependant, on n'en connaît que la seule chapelle.
-Perte de fonction religieuse
-La chapelle a été démolie en 1878.
-Nature des occupants
-Évolution du vocable
-La dédicace à Marie Madeleine est la seule connue pour cet édifice.
-Évolution du statut durant la période d'activité
-La léproserie n'a pas eu d'autre fonction.
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La léproserie a été fondée au début du XIIe siècle. Cependant, on n'en connaît que la seule chapelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Léproserie_de_la_Madeleine_d'Angers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9proserie_de_la_Madeleine_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Perte de fonction religieuse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chapelle a été démolie en 1878.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Léproserie_de_la_Madeleine_d'Angers</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9proserie_de_la_Madeleine_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Évolution du vocable</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dédicace à Marie Madeleine est la seule connue pour cet édifice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Léproserie_de_la_Madeleine_d'Angers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9proserie_de_la_Madeleine_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Évolution du statut durant la période d'activité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La léproserie n'a pas eu d'autre fonction.
 </t>
         </is>
       </c>
